--- a/result/ask_weather_results.xlsx
+++ b/result/ask_weather_results.xlsx
@@ -5,17 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/precioux/Documents/Eunoia-Plus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/precioux/Documents/Eunoia-Plus/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B15A48-C46C-2D4F-9B97-525A7F899825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E509322-FA04-504C-BB9F-B7AFF124CC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="N" sheetId="1" r:id="rId1"/>
+    <sheet name="C" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1029,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1041,7 +1054,7 @@
     <col min="3" max="3" width="63.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1068,8 +1081,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1082,8 +1098,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1096,8 +1115,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1110,8 +1132,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
@@ -1124,8 +1149,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1138,8 +1166,11 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12</v>
       </c>
@@ -1152,8 +1183,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1166,8 +1200,11 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>16</v>
       </c>
@@ -1180,8 +1217,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>18</v>
       </c>
@@ -1194,8 +1234,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20</v>
       </c>
@@ -1208,8 +1251,11 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>22</v>
       </c>
@@ -1222,8 +1268,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>24</v>
       </c>
@@ -1236,8 +1285,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>26</v>
       </c>
@@ -1250,8 +1302,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>28</v>
       </c>
@@ -1264,8 +1319,11 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>30</v>
       </c>
@@ -1278,8 +1336,11 @@
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>32</v>
       </c>
@@ -1292,8 +1353,11 @@
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>34</v>
       </c>
@@ -1306,8 +1370,11 @@
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>36</v>
       </c>
@@ -1320,8 +1387,11 @@
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>38</v>
       </c>
@@ -1334,8 +1404,11 @@
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1348,8 +1421,11 @@
       <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1362,8 +1438,11 @@
       <c r="D23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1376,8 +1455,11 @@
       <c r="D24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1390,8 +1472,11 @@
       <c r="D25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1404,8 +1489,11 @@
       <c r="D26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
@@ -1418,8 +1506,11 @@
       <c r="D27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -1432,8 +1523,11 @@
       <c r="D28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7</v>
       </c>
@@ -1446,8 +1540,11 @@
       <c r="D29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8</v>
       </c>
@@ -1460,8 +1557,11 @@
       <c r="D30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>9</v>
       </c>
@@ -1474,8 +1574,11 @@
       <c r="D31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10</v>
       </c>
@@ -1488,8 +1591,11 @@
       <c r="D32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>11</v>
       </c>
@@ -1502,8 +1608,11 @@
       <c r="D33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>12</v>
       </c>
@@ -1516,8 +1625,11 @@
       <c r="D34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>13</v>
       </c>
@@ -1530,8 +1642,11 @@
       <c r="D35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>14</v>
       </c>
@@ -1544,8 +1659,11 @@
       <c r="D36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>15</v>
       </c>
@@ -1558,8 +1676,11 @@
       <c r="D37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>16</v>
       </c>
@@ -1572,8 +1693,11 @@
       <c r="D38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>17</v>
       </c>
@@ -1586,8 +1710,11 @@
       <c r="D39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>18</v>
       </c>
@@ -1600,8 +1727,11 @@
       <c r="D40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>19</v>
       </c>
@@ -1614,8 +1744,11 @@
       <c r="D41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>20</v>
       </c>
@@ -1628,8 +1761,11 @@
       <c r="D42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>21</v>
       </c>
@@ -1642,8 +1778,11 @@
       <c r="D43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>22</v>
       </c>
@@ -1656,8 +1795,11 @@
       <c r="D44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>23</v>
       </c>
@@ -1670,8 +1812,11 @@
       <c r="D45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>24</v>
       </c>
@@ -1684,8 +1829,11 @@
       <c r="D46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>25</v>
       </c>
@@ -1698,8 +1846,11 @@
       <c r="D47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>26</v>
       </c>
@@ -1712,8 +1863,11 @@
       <c r="D48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>27</v>
       </c>
@@ -1726,8 +1880,11 @@
       <c r="D49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>28</v>
       </c>
@@ -1740,8 +1897,11 @@
       <c r="D50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>29</v>
       </c>
@@ -1754,8 +1914,11 @@
       <c r="D51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>30</v>
       </c>
@@ -1768,8 +1931,11 @@
       <c r="D52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>31</v>
       </c>
@@ -1782,8 +1948,11 @@
       <c r="D53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>32</v>
       </c>
@@ -1796,8 +1965,11 @@
       <c r="D54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>33</v>
       </c>
@@ -1810,8 +1982,11 @@
       <c r="D55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>34</v>
       </c>
@@ -1824,8 +1999,11 @@
       <c r="D56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>35</v>
       </c>
@@ -1838,8 +2016,11 @@
       <c r="D57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>36</v>
       </c>
@@ -1852,8 +2033,11 @@
       <c r="D58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>37</v>
       </c>
@@ -1866,8 +2050,11 @@
       <c r="D59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>38</v>
       </c>
@@ -1880,8 +2067,11 @@
       <c r="D60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>39</v>
       </c>
@@ -1894,568 +2084,718 @@
       <c r="D61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>0</v>
-      </c>
-      <c r="B62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>2</v>
-      </c>
-      <c r="B64" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>3</v>
-      </c>
-      <c r="B65" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>4</v>
-      </c>
-      <c r="B66" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>5</v>
-      </c>
-      <c r="B67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" t="s">
-        <v>87</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>6</v>
-      </c>
-      <c r="B68" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" t="s">
-        <v>89</v>
-      </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>7</v>
-      </c>
-      <c r="B69" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" t="s">
-        <v>91</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>8</v>
-      </c>
-      <c r="B70" t="s">
-        <v>92</v>
-      </c>
-      <c r="C70" t="s">
-        <v>93</v>
-      </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>9</v>
-      </c>
-      <c r="B71" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" t="s">
-        <v>95</v>
-      </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>10</v>
-      </c>
-      <c r="B72" t="s">
-        <v>96</v>
-      </c>
-      <c r="C72" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>11</v>
-      </c>
-      <c r="B73" t="s">
-        <v>98</v>
-      </c>
-      <c r="C73" t="s">
-        <v>99</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>12</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <f>100</f>
         <v>100</v>
-      </c>
-      <c r="C74" t="s">
-        <v>101</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>13</v>
-      </c>
-      <c r="B75" t="s">
-        <v>102</v>
-      </c>
-      <c r="C75" t="s">
-        <v>103</v>
-      </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>14</v>
-      </c>
-      <c r="B76" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76" t="s">
-        <v>105</v>
-      </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>15</v>
-      </c>
-      <c r="B77" t="s">
-        <v>106</v>
-      </c>
-      <c r="C77" t="s">
-        <v>107</v>
-      </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>16</v>
-      </c>
-      <c r="B78" t="s">
-        <v>108</v>
-      </c>
-      <c r="C78" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>17</v>
-      </c>
-      <c r="B79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" t="s">
-        <v>111</v>
-      </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>18</v>
-      </c>
-      <c r="B80" t="s">
-        <v>112</v>
-      </c>
-      <c r="C80" t="s">
-        <v>113</v>
-      </c>
-      <c r="D80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>19</v>
-      </c>
-      <c r="B81" t="s">
-        <v>114</v>
-      </c>
-      <c r="C81" t="s">
-        <v>115</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>20</v>
-      </c>
-      <c r="B82" t="s">
-        <v>116</v>
-      </c>
-      <c r="C82" t="s">
-        <v>117</v>
-      </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>21</v>
-      </c>
-      <c r="B83" t="s">
-        <v>118</v>
-      </c>
-      <c r="C83" t="s">
-        <v>119</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>22</v>
-      </c>
-      <c r="B84" t="s">
-        <v>120</v>
-      </c>
-      <c r="C84" t="s">
-        <v>75</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>23</v>
-      </c>
-      <c r="B85" t="s">
-        <v>121</v>
-      </c>
-      <c r="C85" t="s">
-        <v>113</v>
-      </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>24</v>
-      </c>
-      <c r="B86" t="s">
-        <v>122</v>
-      </c>
-      <c r="C86" t="s">
-        <v>123</v>
-      </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>25</v>
-      </c>
-      <c r="B87" t="s">
-        <v>124</v>
-      </c>
-      <c r="C87" t="s">
-        <v>125</v>
-      </c>
-      <c r="D87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>26</v>
-      </c>
-      <c r="B88" t="s">
-        <v>126</v>
-      </c>
-      <c r="C88" t="s">
-        <v>127</v>
-      </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>27</v>
-      </c>
-      <c r="B89" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" t="s">
-        <v>129</v>
-      </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>28</v>
-      </c>
-      <c r="B90" t="s">
-        <v>130</v>
-      </c>
-      <c r="C90" t="s">
-        <v>63</v>
-      </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>29</v>
-      </c>
-      <c r="B91" t="s">
-        <v>131</v>
-      </c>
-      <c r="C91" t="s">
-        <v>132</v>
-      </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>30</v>
-      </c>
-      <c r="B92" t="s">
-        <v>133</v>
-      </c>
-      <c r="C92" t="s">
-        <v>134</v>
-      </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>31</v>
-      </c>
-      <c r="B93" t="s">
-        <v>135</v>
-      </c>
-      <c r="C93" t="s">
-        <v>136</v>
-      </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>32</v>
-      </c>
-      <c r="B94" t="s">
-        <v>137</v>
-      </c>
-      <c r="C94" t="s">
-        <v>138</v>
-      </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>33</v>
-      </c>
-      <c r="B95" t="s">
-        <v>139</v>
-      </c>
-      <c r="C95" t="s">
-        <v>140</v>
-      </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>34</v>
-      </c>
-      <c r="B96" t="s">
-        <v>141</v>
-      </c>
-      <c r="C96" t="s">
-        <v>142</v>
-      </c>
-      <c r="D96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>35</v>
-      </c>
-      <c r="B97" t="s">
-        <v>143</v>
-      </c>
-      <c r="C97" t="s">
-        <v>144</v>
-      </c>
-      <c r="D97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>36</v>
-      </c>
-      <c r="B98" t="s">
-        <v>145</v>
-      </c>
-      <c r="C98" t="s">
-        <v>146</v>
-      </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>37</v>
-      </c>
-      <c r="B99" t="s">
-        <v>147</v>
-      </c>
-      <c r="C99" t="s">
-        <v>148</v>
-      </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>38</v>
-      </c>
-      <c r="B100" t="s">
-        <v>149</v>
-      </c>
-      <c r="C100" t="s">
-        <v>150</v>
-      </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>39</v>
-      </c>
-      <c r="B101" t="s">
-        <v>151</v>
-      </c>
-      <c r="C101" t="s">
-        <v>152</v>
-      </c>
-      <c r="D101">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1433B8A6-431D-7245-8467-282B1C553E8F}">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <f>AVERAGE(E1:E40)</f>
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>